--- a/scrapers/source-data/references.xlsx
+++ b/scrapers/source-data/references.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabmel\OneDrive\Documentos\fgv\field\-sailing-rankings-2024.1\scrapers\source-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EBFFCE-1487-474A-BDB1-525B1A9AEA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,155 +25,256 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
-  <si>
-    <t xml:space="preserve">Classe Vela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nome Competição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID Competição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49er</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Championship 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/e3c4eb48-f6ed-4ec7-b8ac-9f232ddea639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Championship 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/518808dd-25a2-4c23-b413-ed73aabba3fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Championship 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/89dc12b0-2d91-4877-88b7-825038ac4036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Championship 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/34d61158-9068-4d8f-9ff1-95140af60d43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Championship 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/6accf2e2-7593-46df-b0dd-d2c41bcfa6cb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Championship 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/b4f510d9-e46d-4641-a054-200fb82e8814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semaine Olympique Francaise De Voile 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/c325c119-7db6-41cf-a2ce-1cb647c25810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semaine Olympique Francaise De Voile 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/40545c8b-ec94-41e8-86c3-7d576d350a7d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49erFX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/7bf103f7-bb7f-463d-873f-dfa796f3c139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/9a4044bf-78b3-42fc-bf38-38b07a54ad0a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/363b2130-c76c-4311-8555-f039b7ed8b31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/59b55784-fa1e-4191-bc9c-228e11f84f88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/c1cb92d1-bad5-406b-b96c-9116cdd3b06c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/979278e1-bd55-461d-9f64-0fb64bf901b4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/d7411a92-4012-4a35-97f5-21522a64e626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/7ef3deb4-c00a-4794-9068-cb3cf550dc01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilca 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/d6754053-b44f-45ee-b35a-4f089ec87d1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilca 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/35094a41-da0f-43e2-bdb6-32945b2cbb17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semaine Olympique Francaise de Voile 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/f9177157-d702-4601-b6d2-1a12e644a0fb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/3925beb4-a0ec-42d0-b784-67a9f38994d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semaine Olympique Francaise de Voile 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/e1eab430-62c6-411c-82f1-ee896b53a55f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/056dd04a-3fad-45f1-b9c2-894bdb176b43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49erFx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Championship 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/3e80cde7-7999-4a51-93c8-e41ebe1d0629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/98451f0f-a49c-40a8-b693-fb16a5fceb16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nacra 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/d4a57afc-cfe8-4bdc-aaa3-240a624de8e7</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+  <si>
+    <t>Classe Vela</t>
+  </si>
+  <si>
+    <t>Nome Competição</t>
+  </si>
+  <si>
+    <t>ID Competição</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>49er</t>
+  </si>
+  <si>
+    <t>European Championship 2020</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/e3c4eb48-f6ed-4ec7-b8ac-9f232ddea639</t>
+  </si>
+  <si>
+    <t>World Championship 2018</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/518808dd-25a2-4c23-b413-ed73aabba3fc</t>
+  </si>
+  <si>
+    <t>World Championship 2017</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/89dc12b0-2d91-4877-88b7-825038ac4036</t>
+  </si>
+  <si>
+    <t>World Championship 2016</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/34d61158-9068-4d8f-9ff1-95140af60d43</t>
+  </si>
+  <si>
+    <t>World Championship 2015</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/6accf2e2-7593-46df-b0dd-d2c41bcfa6cb</t>
+  </si>
+  <si>
+    <t>European Championship 2016</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/b4f510d9-e46d-4641-a054-200fb82e8814</t>
+  </si>
+  <si>
+    <t>Semaine Olympique Francaise De Voile 2018</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/c325c119-7db6-41cf-a2ce-1cb647c25810</t>
+  </si>
+  <si>
+    <t>Semaine Olympique Francaise De Voile 2017</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/40545c8b-ec94-41e8-86c3-7d576d350a7d</t>
+  </si>
+  <si>
+    <t>49erFX</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/7bf103f7-bb7f-463d-873f-dfa796f3c139</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/9a4044bf-78b3-42fc-bf38-38b07a54ad0a</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/363b2130-c76c-4311-8555-f039b7ed8b31</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/59b55784-fa1e-4191-bc9c-228e11f84f88</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/c1cb92d1-bad5-406b-b96c-9116cdd3b06c</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/979278e1-bd55-461d-9f64-0fb64bf901b4</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/d7411a92-4012-4a35-97f5-21522a64e626</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/7ef3deb4-c00a-4794-9068-cb3cf550dc01</t>
+  </si>
+  <si>
+    <t>Ilca 7</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/d6754053-b44f-45ee-b35a-4f089ec87d1d</t>
+  </si>
+  <si>
+    <t>Ilca 6</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/35094a41-da0f-43e2-bdb6-32945b2cbb17</t>
+  </si>
+  <si>
+    <t>Semaine Olympique Francaise de Voile 2018</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/f9177157-d702-4601-b6d2-1a12e644a0fb</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/3925beb4-a0ec-42d0-b784-67a9f38994d3</t>
+  </si>
+  <si>
+    <t>Semaine Olympique Francaise de Voile 2017</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/e1eab430-62c6-411c-82f1-ee896b53a55f</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/056dd04a-3fad-45f1-b9c2-894bdb176b43</t>
+  </si>
+  <si>
+    <t>49erFx</t>
+  </si>
+  <si>
+    <t>European Championship 2022</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/3e80cde7-7999-4a51-93c8-e41ebe1d0629</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/98451f0f-a49c-40a8-b693-fb16a5fceb16</t>
+  </si>
+  <si>
+    <t>Nacra 17</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/d4a57afc-cfe8-4bdc-aaa3-240a624de8e7</t>
+  </si>
+  <si>
+    <t>Martinsregatta 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/cb621153-68c1-4770-9d78-7bf34712da39/regattaresult/4ca5a91b-1a2b-4b1a-aaf2-23da3cf9d263</t>
+  </si>
+  <si>
+    <t>Saarlandmeisterschaft</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/6ab6dbba-1db4-4d55-8c18-e145ecc6b210/regattaresult/367d053b-83ad-4f04-88ce-55bc03b587b9</t>
+  </si>
+  <si>
+    <t>Internationale Trapezregata der</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/a0e2b96d-ac1a-4386-a87d-fc3ecc67340b/regattaresult/5a46c9cb-c7f5-4576-8172-6904c16a6421</t>
+  </si>
+  <si>
+    <t>Campeonato Nórdico Aberto</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/2d5fb20a-c14d-48ad-b5f1-d39bf5a06fdf/regattaresult/5626ee65-7629-4b8d-bd7e-149c25ff4782</t>
+  </si>
+  <si>
+    <t>iQFoil 9</t>
+  </si>
+  <si>
+    <t>iQFoil 8</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/2d5fb20a-c14d-48ad-b5f1-d39bf5a06fdf/regattaresult/cf0af14b-074e-45c9-83b4-dc223f064f3c</t>
+  </si>
+  <si>
+    <t>Kite</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/394655ff-a660-403c-9e66-065204d30060/regattaresult/736f0b8f-a428-41c5-8151-3b3988a59668</t>
+  </si>
+  <si>
+    <t>Rider of the Year II 2023</t>
+  </si>
+  <si>
+    <t>Rider of the Year I 2023</t>
+  </si>
+  <si>
+    <t>Rider of the Year III 2023</t>
+  </si>
+  <si>
+    <t>Rider of the Year IV 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/3ff63e89-33d0-48a9-802d-f60e415bf414/regattaresult/dee267af-5f3d-4ea3-b9af-c0e8ccae1234</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/9b20e211-fb80-420c-8d1d-53efb40591cf/regattaresult/65549ba9-f68c-44bf-b6d5-084ddad76c5c</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/ca3498dc-fe59-4121-86c7-6031a2eec059/regattaresult/bca6172b-5476-4b1e-95f9-ad3c76ab296f</t>
+  </si>
+  <si>
+    <t>Asa Engadina - Windsurf - Maratona de Kite 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/227d03f6-1a0d-4fcd-ba7f-9a4df4dbb547/regattaresult/82332edb-dd65-427d-a606-d174d09f7394</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/58ea7022-2713-4b75-9b90-74dcebaa7467/regattaresult/929e6090-710c-493c-a979-3d1802cddc44</t>
+  </si>
+  <si>
+    <t>SVK 2023</t>
+  </si>
+  <si>
+    <t>Alpsee-Skiff-Weekend 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/be360bf4-0c4b-459c-afd1-6b87d2810950/regattaresult/894c9877-ae69-4de9-824c-b88dbe6c6498</t>
+  </si>
+  <si>
+    <t>Eesti Meistrivõistlused 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/58e7b02f-4d6a-4310-9206-d7eb493fedac/regattaresult/49er</t>
+  </si>
+  <si>
+    <t>IDM / IDJoM 2023</t>
+  </si>
+  <si>
+    <t>40erFX</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/e4af1af6-1b2f-42b9-89a8-8e3664301c41/regattaresult/JoM49</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/e4af1af6-1b2f-42b9-89a8-8e3664301c41/regattaresult/JoMFX</t>
+  </si>
+  <si>
+    <t>Esquife DS-DM 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/a799a094-bd7a-487a-a1fa-2acddaf40dbd/regattaresult/1db95acb-adcd-467a-adbe-d9143db24286</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/a799a094-bd7a-487a-a1fa-2acddaf40dbd/regattaresult/4fc4dbf4-536f-4b58-86e9-6a32f49bdc49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,25 +284,24 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +313,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -216,96 +321,388 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.29"/>
+    <col min="1" max="1" width="18.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -319,368 +716,601 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="2">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="2">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="2">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="2">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="2">
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="5">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="5">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="2">
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="2">
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="2">
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="2">
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="2">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="2">
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="5">
         <v>25</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="5">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="6">
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="6">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="6">
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="6">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="6">
         <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="6">
         <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>470</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2">
+        <v>33</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>470</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="10">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>470</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2">
+        <v>35</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2">
+        <v>36</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="2">
+        <v>36</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2">
+        <v>37</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2">
+        <v>38</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2">
+        <v>39</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2">
+        <v>46</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2">
+        <v>46</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/"/>
-    <hyperlink ref="D25" r:id="rId2" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/"/>
-    <hyperlink ref="D26" r:id="rId3" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/"/>
+    <hyperlink ref="D24" r:id="rId1" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D25" r:id="rId2" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D26" r:id="rId3" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/scrapers/source-data/references.xlsx
+++ b/scrapers/source-data/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabmel\OneDrive\Documentos\fgv\field\-sailing-rankings-2024.1\scrapers\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EBFFCE-1487-474A-BDB1-525B1A9AEA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33279094-CCB6-45E1-BA0B-DBE4D944E257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
   <si>
     <t>Classe Vela</t>
   </si>
@@ -243,38 +243,212 @@
     <t>https://manage2sail.com/api/event/be360bf4-0c4b-459c-afd1-6b87d2810950/regattaresult/894c9877-ae69-4de9-824c-b88dbe6c6498</t>
   </si>
   <si>
-    <t>Eesti Meistrivõistlused 2023</t>
-  </si>
-  <si>
-    <t>https://manage2sail.com/api/event/58e7b02f-4d6a-4310-9206-d7eb493fedac/regattaresult/49er</t>
-  </si>
-  <si>
-    <t>IDM / IDJoM 2023</t>
-  </si>
-  <si>
-    <t>40erFX</t>
-  </si>
-  <si>
-    <t>https://manage2sail.com/api/event/e4af1af6-1b2f-42b9-89a8-8e3664301c41/regattaresult/JoM49</t>
-  </si>
-  <si>
-    <t>https://manage2sail.com/api/event/e4af1af6-1b2f-42b9-89a8-8e3664301c41/regattaresult/JoMFX</t>
-  </si>
-  <si>
     <t>Esquife DS-DM 2023</t>
   </si>
   <si>
-    <t>https://manage2sail.com/api/event/a799a094-bd7a-487a-a1fa-2acddaf40dbd/regattaresult/1db95acb-adcd-467a-adbe-d9143db24286</t>
-  </si>
-  <si>
     <t>https://manage2sail.com/api/event/a799a094-bd7a-487a-a1fa-2acddaf40dbd/regattaresult/4fc4dbf4-536f-4b58-86e9-6a32f49bdc49</t>
+  </si>
+  <si>
+    <t>ilca 7</t>
+  </si>
+  <si>
+    <t>ilca 6</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/92afe9f9-1611-47fb-a28c-aca4e41a589d/regattaresult/177e915a-96ac-498e-b115-b74766a63cba</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/92afe9f9-1611-47fb-a28c-aca4e41a589d/regattaresult/194d9758-9808-4c53-b41a-730741d53000</t>
+  </si>
+  <si>
+    <t>CAMPEONATO ABERTO BELGA 2023</t>
+  </si>
+  <si>
+    <t>ILCA Nacional 1 ZC Hofstade 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/5a58fee5-849c-4193-9d9e-713dac2c661d/regattaresult/f45f619b-df96-4c39-993c-3fc131b6e44b</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/5a58fee5-849c-4193-9d9e-713dac2c661d/regattaresult/e24d5e60-4387-4451-a651-3d84216b3861</t>
+  </si>
+  <si>
+    <t>Kupferne Rohrdommel - Distriktmeisterschaft Nord 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/1e8935a4-601a-4805-a3aa-97d0bf372aab/regattaresult/5ceaa952-587d-4c49-9d53-f6fb20359b37</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/1e8935a4-601a-4805-a3aa-97d0bf372aab/regattaresult/35fef37c-d106-4fb2-9488-46c2d3047f92</t>
+  </si>
+  <si>
+    <t>EURILCA MASTER SERIES BÉLGICA 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/3670ccd7-1fc8-4f2b-9db4-3179960a08a7/regattaresult/ce2de4e7-aeec-4575-8a3f-b795b41d1f48</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/3670ccd7-1fc8-4f2b-9db4-3179960a08a7/regattaresult/d6faf791-25c0-4f8f-96c5-f0b288cdb212</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/651b64e8-24a5-4095-ba77-7992789f3309/regattaresult/1a331330-8f96-44a8-8702-7aa9db70cc3f</t>
+  </si>
+  <si>
+    <t>Regata ILCA 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/589739b7-a39e-460a-baec-c6610ca96d1a/regattaresult/f6624ecf-6cfb-4431-b750-d3e2fdac40bf</t>
+  </si>
+  <si>
+    <t>Opti-Europa-ILCA Treff Bosau 2023</t>
+  </si>
+  <si>
+    <t>Norgesmesterskap ILCA e Optimist 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/670cfed9-996a-427c-922c-a6b0af34586c/regattaresult/47735c4b-670a-4368-a39b-801f8baad69f</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/670cfed9-996a-427c-922c-a6b0af34586c/regattaresult/db9a9e08-89a1-4088-891a-fe76c23cdc31</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/d4027706-2a82-41c9-a172-4e935fae8739/regattaresult/9a1759fd-a191-4f4f-8ff9-0d8aaedc9100</t>
+  </si>
+  <si>
+    <t>ILCA Punktemeisterschaft 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/12442ff0-3f37-4bff-88d4-87e8bb5a86c8/regattaresult/f8ef8dcd-7696-4d19-8fb4-afc27c4fea46</t>
+  </si>
+  <si>
+    <t>Escola laser 2023</t>
+  </si>
+  <si>
+    <t>Troféu Königswinkel ILCA 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/62fd50b1-1876-4c16-8e86-608bf7f1d06a/regattaresult/27049377-9bec-40e9-8699-6ef2b24327d0</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/62fd50b1-1876-4c16-8e86-608bf7f1d06a/regattaresult/e64b5966-d07a-47ce-b0f7-bff3af41fcd7</t>
+  </si>
+  <si>
+    <t>IDJM 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/8c0efde4-c5ca-4f7d-a8f3-9b378bfc2886/regattaresult/494145d6-6ac8-42a9-adb8-a6824218e05f</t>
+  </si>
+  <si>
+    <t>Internacional. Laser-Kuhschellenregatta 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/d98c5acb-1157-4141-a459-ade8977620b0/regattaresult/49093fb6-a0c8-4005-9d78-25c2a21cd49c</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/d98c5acb-1157-4141-a459-ade8977620b0/regattaresult/7d7a9867-5636-4379-aacb-c4189776d2c0</t>
+  </si>
+  <si>
+    <t>EurILCA Campeonato Europeu Sub 21 e Troféu Europeu Aberto 2023</t>
+  </si>
+  <si>
+    <t>EurILCA Campeonato Europeu Sub 21 e Troféu Europeu Aberto</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/e5eb6cb9-f71a-4326-9640-7ba859eb4df2/regattaresult/eb19f998-5abb-4350-b6e5-f19d23a90085</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/e5eb6cb9-f71a-4326-9640-7ba859eb4df2/regattaresult/c60415f9-44d2-4fe2-9f24-f7400f12352b</t>
+  </si>
+  <si>
+    <t>Latvijas atklātais čempionāts 2023 Optimist e ILCA klasēm</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/18852d68-82f7-44af-8948-70ae9480bf54/regattaresult/e4969b8f-770d-4c8e-b308-b4663f1f009b</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/18852d68-82f7-44af-8948-70ae9480bf54/regattaresult/b9c8ccdc-53ca-485c-8115-4b3ee029531a</t>
+  </si>
+  <si>
+    <t>ILCANC 3  2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/b5097c69-91ec-4823-94fe-2022bf1505ac/regattaresult/dcc7455a-a052-4145-9a60-527e40e714a2</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/b5097c69-91ec-4823-94fe-2022bf1505ac/regattaresult/b23623ff-b4f4-4ec3-b21c-c719c71f58e0</t>
+  </si>
+  <si>
+    <t>Copa Surendorf 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/97dcda45-f887-4c1e-81e8-df819c2fda07/regattaresult/195c6974-ce8f-4e2d-976c-57e75a83c29c</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/97dcda45-f887-4c1e-81e8-df819c2fda07/regattaresult/46b705f1-deff-48ad-ac9f-c5df36c08d1c</t>
+  </si>
+  <si>
+    <t>Spandauer Eis-Cup 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/83f37faf-c4d2-41ba-8f96-529a9f56d778/regattaresult/381bdce2-abab-41d3-b531-0c6737a35252</t>
+  </si>
+  <si>
+    <t>LYC Youth Cup 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/8c39392b-6d6c-48e9-b686-23e651624e46/regattaresult/d19acdeb-4239-4cba-a13b-7f3b8605da98</t>
+  </si>
+  <si>
+    <t>DER WIKINGER 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/229a85ba-c23e-4257-bbba-b4af879062ae/regattaresult/ab2abd0f-b1fe-4102-9849-b4212d5b993d</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/229a85ba-c23e-4257-bbba-b4af879062ae/regattaresult/3dc707e9-c5cd-41b0-8bfd-e7d45634007b</t>
+  </si>
+  <si>
+    <t>ILCA6 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/ed99a262-7b97-4f79-89b8-326e3fd05e68/regattaresult/cd0a69ce-f468-462f-b4db-a43da09eafc2</t>
+  </si>
+  <si>
+    <t>ILCA7 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/82382487-1fcc-46bc-9ff9-5fc05c1b2e07/regattaresult/7de9b34e-53e7-47cf-a0b0-c36246a00e30</t>
+  </si>
+  <si>
+    <t>Nationale wedstrijd 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/d1e2dc90-a4bd-4065-9edb-36391f72670f/regattaresult/ae2cc32f-cc74-44dc-ba0a-51d395065fdc</t>
+  </si>
+  <si>
+    <t>Martinsregata II ILCA 2023</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/db3e82e7-af65-46a0-b2af-0892e1cedcfc/regattaresult/68532871-30e3-4033-a440-33b442c08591</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/db3e82e7-af65-46a0-b2af-0892e1cedcfc/regattaresult/39f9b4aa-e6a2-4981-9804-e0ef094ae804</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/a8ce7ffd-fb2b-4add-9ec4-2f3bb7e0fa40/regattaresult/91f91403-1bcc-4ff5-b8ef-9b10ec19fb44</t>
+  </si>
+  <si>
+    <t>https://manage2sail.com/api/event/a8ce7ffd-fb2b-4add-9ec4-2f3bb7e0fa40/regattaresult/072ae1fe-1b34-4572-8336-962771e440f3</t>
+  </si>
+  <si>
+    <t>Auftaktregatta - 2024 - ILCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,14 +460,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -324,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -348,11 +514,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,13 +1233,13 @@
       <c r="A27" s="7">
         <v>470</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="2">
         <v>33</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1087,38 +1250,38 @@
       <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="2">
         <v>34</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="7">
         <v>470</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="2">
         <v>35</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="2">
         <v>36</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1132,7 +1295,7 @@
       <c r="C31" s="2">
         <v>36</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1146,7 +1309,7 @@
       <c r="C32" s="2">
         <v>37</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1160,7 +1323,7 @@
       <c r="C33" s="2">
         <v>38</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1174,7 +1337,7 @@
       <c r="C34" s="2">
         <v>39</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1188,7 +1351,7 @@
       <c r="C35" s="2">
         <v>40</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1202,7 +1365,7 @@
       <c r="C36" s="2">
         <v>41</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1230,7 +1393,7 @@
       <c r="C38" s="2">
         <v>43</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1242,49 +1405,49 @@
         <v>72</v>
       </c>
       <c r="C39" s="2">
-        <v>44</v>
-      </c>
-      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2">
-        <v>45</v>
-      </c>
-      <c r="D40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2">
-        <v>45</v>
-      </c>
-      <c r="D41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>80</v>
@@ -1292,17 +1455,496 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>79</v>
-      </c>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="2">
+        <v>50</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2">
+        <v>50</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2">
+        <v>51</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2">
+        <v>51</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2">
+        <v>52</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="2">
+        <v>54</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="2">
+        <v>55</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2">
+        <v>55</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="2">
+        <v>56</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="2">
+        <v>57</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="2">
+        <v>58</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="2">
+        <v>59</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="2">
+        <v>60</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="2">
+        <v>61</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="2">
+        <v>61</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="2">
+        <v>59</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2">
+        <v>60</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="2">
+        <v>62</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="2">
+        <v>62</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="2">
+        <v>64</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="2">
+        <v>63</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="2">
+        <v>64</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="2">
+        <v>65</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="2">
+        <v>65</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2">
+        <v>66</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="2">
+        <v>67</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="2">
+        <v>67</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="2">
+        <v>68</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="2">
+        <v>69</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="2">
+        <v>70</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="2">
+        <v>71</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="2">
+        <v>71</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="2">
+        <v>72</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="2">
+        <v>72</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/scrapers/source-data/references.xlsx
+++ b/scrapers/source-data/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabmel\OneDrive\Documentos\fgv\field\-sailing-rankings-2024.1\scrapers\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660F4FF-57AA-4CE5-B666-818168E78059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899F82B-6F1C-4873-9611-EFB8213E6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1233,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="2">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
@@ -1247,7 +1247,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="2">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
         <v>49</v>
@@ -1261,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="2">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
@@ -1275,7 +1275,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="2">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
@@ -1289,7 +1289,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="2">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
@@ -1303,7 +1303,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
         <v>58</v>
@@ -1317,7 +1317,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="2">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
@@ -1331,7 +1331,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="2">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
         <v>64</v>
@@ -1345,7 +1345,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
@@ -1359,7 +1359,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="2">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
         <v>67</v>
@@ -1373,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
@@ -1387,7 +1387,7 @@
         <v>70</v>
       </c>
       <c r="C38" s="2">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -1401,7 +1401,7 @@
         <v>72</v>
       </c>
       <c r="C39" s="2">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="D39" t="s">
         <v>73</v>
@@ -1415,7 +1415,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="2">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
@@ -1429,7 +1429,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="2">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="D41" t="s">
         <v>77</v>
@@ -1443,7 +1443,7 @@
         <v>79</v>
       </c>
       <c r="C42" s="2">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -1457,7 +1457,7 @@
         <v>79</v>
       </c>
       <c r="C43" s="2">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
         <v>81</v>
@@ -1471,7 +1471,7 @@
         <v>82</v>
       </c>
       <c r="C44" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
         <v>83</v>
@@ -1485,7 +1485,7 @@
         <v>82</v>
       </c>
       <c r="C45" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
         <v>84</v>
@@ -1499,7 +1499,7 @@
         <v>85</v>
       </c>
       <c r="C46" s="2">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
         <v>86</v>
@@ -1513,7 +1513,7 @@
         <v>85</v>
       </c>
       <c r="C47" s="2">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="D47" t="s">
         <v>87</v>
@@ -1527,7 +1527,7 @@
         <v>89</v>
       </c>
       <c r="C48" s="2">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
         <v>88</v>
@@ -1541,7 +1541,7 @@
         <v>91</v>
       </c>
       <c r="C49" s="2">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
         <v>90</v>
@@ -1555,7 +1555,7 @@
         <v>92</v>
       </c>
       <c r="C50" s="2">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
         <v>93</v>
@@ -1569,7 +1569,7 @@
         <v>92</v>
       </c>
       <c r="C51" s="2">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="D51" t="s">
         <v>94</v>
@@ -1583,7 +1583,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="2">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="D52" t="s">
         <v>95</v>
@@ -1597,7 +1597,7 @@
         <v>98</v>
       </c>
       <c r="C53" s="2">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
         <v>97</v>
@@ -1611,7 +1611,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="2">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="D54" t="s">
         <v>103</v>
@@ -1625,7 +1625,7 @@
         <v>104</v>
       </c>
       <c r="C55" s="2">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="D55" t="s">
         <v>105</v>
@@ -1639,7 +1639,7 @@
         <v>108</v>
       </c>
       <c r="C56" s="2">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="D56" t="s">
         <v>109</v>
@@ -1653,7 +1653,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="2">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="D57" t="s">
         <v>100</v>
@@ -1667,7 +1667,7 @@
         <v>99</v>
       </c>
       <c r="C58" s="2">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="D58" t="s">
         <v>101</v>
@@ -1681,7 +1681,7 @@
         <v>104</v>
       </c>
       <c r="C59" s="2">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="D59" t="s">
         <v>106</v>
@@ -1695,7 +1695,7 @@
         <v>107</v>
       </c>
       <c r="C60" s="2">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="D60" t="s">
         <v>110</v>
@@ -1709,7 +1709,7 @@
         <v>111</v>
       </c>
       <c r="C61" s="2">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="D61" t="s">
         <v>112</v>
@@ -1723,7 +1723,7 @@
         <v>111</v>
       </c>
       <c r="C62" s="2">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="D62" t="s">
         <v>113</v>
@@ -1737,7 +1737,7 @@
         <v>114</v>
       </c>
       <c r="C63" s="2">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
         <v>116</v>
@@ -1751,7 +1751,7 @@
         <v>120</v>
       </c>
       <c r="C64" s="2">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s">
         <v>121</v>
@@ -1765,7 +1765,7 @@
         <v>114</v>
       </c>
       <c r="C65" s="2">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="D65" t="s">
         <v>115</v>
@@ -1779,7 +1779,7 @@
         <v>117</v>
       </c>
       <c r="C66" s="2">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="D66" t="s">
         <v>119</v>
@@ -1793,7 +1793,7 @@
         <v>117</v>
       </c>
       <c r="C67" s="2">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -1807,7 +1807,7 @@
         <v>122</v>
       </c>
       <c r="C68" s="2">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
         <v>123</v>
@@ -1821,7 +1821,7 @@
         <v>124</v>
       </c>
       <c r="C69" s="2">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="D69" t="s">
         <v>125</v>
@@ -1835,7 +1835,7 @@
         <v>124</v>
       </c>
       <c r="C70" s="2">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s">
         <v>126</v>
@@ -1849,7 +1849,7 @@
         <v>127</v>
       </c>
       <c r="C71" s="2">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="D71" t="s">
         <v>128</v>
@@ -1863,7 +1863,7 @@
         <v>129</v>
       </c>
       <c r="C72" s="2">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="D72" t="s">
         <v>130</v>
@@ -1877,7 +1877,7 @@
         <v>131</v>
       </c>
       <c r="C73" s="2">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D73" t="s">
         <v>132</v>
@@ -1891,7 +1891,7 @@
         <v>133</v>
       </c>
       <c r="C74" s="2">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="D74" t="s">
         <v>134</v>
@@ -1905,7 +1905,7 @@
         <v>133</v>
       </c>
       <c r="C75" s="2">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="D75" t="s">
         <v>135</v>
@@ -1919,7 +1919,7 @@
         <v>138</v>
       </c>
       <c r="C76" s="2">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="D76" t="s">
         <v>136</v>
@@ -1933,7 +1933,7 @@
         <v>138</v>
       </c>
       <c r="C77" s="2">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="D77" t="s">
         <v>137</v>

--- a/scrapers/source-data/references.xlsx
+++ b/scrapers/source-data/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabmel\OneDrive\Documentos\fgv\field\-sailing-rankings-2024.1\scrapers\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1899F82B-6F1C-4873-9611-EFB8213E6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF0727-67EE-43ED-9285-1E8F6ED361C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
   <si>
     <t>Classe Vela</t>
   </si>
@@ -171,21 +171,12 @@
     <t>https://manage2sail.com/api/event/cb621153-68c1-4770-9d78-7bf34712da39/regattaresult/4ca5a91b-1a2b-4b1a-aaf2-23da3cf9d263</t>
   </si>
   <si>
-    <t>Saarlandmeisterschaft</t>
-  </si>
-  <si>
     <t>https://manage2sail.com/api/event/6ab6dbba-1db4-4d55-8c18-e145ecc6b210/regattaresult/367d053b-83ad-4f04-88ce-55bc03b587b9</t>
   </si>
   <si>
-    <t>Internationale Trapezregata der</t>
-  </si>
-  <si>
     <t>https://manage2sail.com/api/event/a0e2b96d-ac1a-4386-a87d-fc3ecc67340b/regattaresult/5a46c9cb-c7f5-4576-8172-6904c16a6421</t>
   </si>
   <si>
-    <t>Campeonato Nórdico Aberto</t>
-  </si>
-  <si>
     <t>https://manage2sail.com/api/event/2d5fb20a-c14d-48ad-b5f1-d39bf5a06fdf/regattaresult/5626ee65-7629-4b8d-bd7e-149c25ff4782</t>
   </si>
   <si>
@@ -351,18 +342,12 @@
     <t>EurILCA Campeonato Europeu Sub 21 e Troféu Europeu Aberto 2023</t>
   </si>
   <si>
-    <t>EurILCA Campeonato Europeu Sub 21 e Troféu Europeu Aberto</t>
-  </si>
-  <si>
     <t>https://manage2sail.com/api/event/e5eb6cb9-f71a-4326-9640-7ba859eb4df2/regattaresult/eb19f998-5abb-4350-b6e5-f19d23a90085</t>
   </si>
   <si>
     <t>https://manage2sail.com/api/event/e5eb6cb9-f71a-4326-9640-7ba859eb4df2/regattaresult/c60415f9-44d2-4fe2-9f24-f7400f12352b</t>
   </si>
   <si>
-    <t>Latvijas atklātais čempionāts 2023 Optimist e ILCA klasēm</t>
-  </si>
-  <si>
     <t>https://manage2sail.com/api/event/18852d68-82f7-44af-8948-70ae9480bf54/regattaresult/e4969b8f-770d-4c8e-b308-b4663f1f009b</t>
   </si>
   <si>
@@ -441,7 +426,19 @@
     <t>https://manage2sail.com/api/event/a8ce7ffd-fb2b-4add-9ec4-2f3bb7e0fa40/regattaresult/072ae1fe-1b34-4572-8336-962771e440f3</t>
   </si>
   <si>
-    <t>Auftaktregatta - 2024 - ILCA</t>
+    <t>Saarlandmeisterschaft 2023</t>
+  </si>
+  <si>
+    <t>Internationale Trapezregata der 2023</t>
+  </si>
+  <si>
+    <t>Campeonato Nórdico Aberto 2023</t>
+  </si>
+  <si>
+    <t>Latvijas atklātais čempionāts - Optimist e ILCA klasēm 2023</t>
+  </si>
+  <si>
+    <t>Auftaktregatta - ILCA 2024</t>
   </si>
 </sst>
 </file>
@@ -849,14 +846,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="64.33203125" style="1" customWidth="1"/>
   </cols>
@@ -1244,13 +1241,13 @@
         <v>470</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2">
         <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1258,111 +1255,111 @@
         <v>470</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2">
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2">
         <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="C31" s="2">
         <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2">
         <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C33" s="2">
         <v>238</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2">
         <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2">
         <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2">
         <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,13 +1367,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2">
         <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,13 +1381,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38" s="2">
         <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,545 +1395,545 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2">
         <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="2">
         <v>248</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2">
         <v>248</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2">
         <v>249</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2">
         <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2">
         <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2">
         <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2">
         <v>251</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2">
         <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C49" s="2">
         <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2">
         <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2">
         <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2">
         <v>256</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2">
         <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2">
         <v>258</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2">
         <v>259</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2">
         <v>260</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="2">
         <v>261</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2">
         <v>261</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2">
         <v>259</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2">
         <v>260</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C61" s="2">
         <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2">
         <v>262</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2">
         <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2">
         <v>263</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2">
         <v>264</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2">
         <v>265</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2">
         <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2">
         <v>266</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2">
         <v>267</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2">
         <v>267</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2">
         <v>268</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C72" s="2">
         <v>269</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2">
         <v>270</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C74" s="2">
         <v>271</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2">
         <v>271</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="2">
         <v>272</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2">
         <v>272</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">

--- a/scrapers/source-data/references.xlsx
+++ b/scrapers/source-data/references.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabmel\OneDrive\Documentos\fgv\field\-sailing-rankings-2024.1\scrapers\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silla\Desktop\Projetos\-sailing-rankings-2024.1\scrapers\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF0727-67EE-43ED-9285-1E8F6ED361C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAF686-2358-4458-BA49-AEB41787509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="142">
   <si>
     <t>Classe Vela</t>
   </si>
@@ -439,13 +439,25 @@
   </si>
   <si>
     <t>Auftaktregatta - ILCA 2024</t>
+  </si>
+  <si>
+    <t>World Championship 2019</t>
+  </si>
+  <si>
+    <t>https://www.manage2sail.com/api/event/0adf7bcd-01d0-4214-a295-bb0b9136999e/regattaresult/056dd04a-3fad-45f1-b9c2-894bdb176b43</t>
+  </si>
+  <si>
+    <t>https://www.manage2sail.com/api/event/41de110b-ec26-427d-81fb-be7807677326/regattaresult/5c147b15-f550-4046-ab46-203d9390ddb7</t>
+  </si>
+  <si>
+    <t>https://www.manage2sail.com/api/event/71c3d3a9-60fc-4465-816d-4b474c3ef34b/regattaresult/f9177157-d702-4601-b6d2-1a12e644a0fb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -466,16 +478,42 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -483,11 +521,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -510,8 +594,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -844,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1460,7 +1558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>72</v>
       </c>
@@ -1474,7 +1572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -1488,7 +1586,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -1502,7 +1600,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>71</v>
       </c>
@@ -1544,7 +1642,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
@@ -1558,7 +1656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -1614,7 +1712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -1670,7 +1768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -1684,7 +1782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -1876,7 +1974,7 @@
       <c r="C73" s="2">
         <v>270</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="12" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1922,7 +2020,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
@@ -1936,16 +2034,69 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D78"/>
+    <row r="78" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D25" r:id="rId2" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D26" r:id="rId3" display="https://manage2sail.com/api/event/c64b4c22-4afb-4889-9a4d-84ce7442aa35/regattaresult/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D73" r:id="rId4" xr:uid="{D92C3F84-0915-430E-803B-533F45FF7628}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>